--- a/NSW buddegt.xlsx
+++ b/NSW buddegt.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://siemensapc-my.sharepoint.com/personal/samsul_arefin-khan_siemens_com/Documents/Documents/GitHub/Demo-1A/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_088E34866CCB0E8DAB567A8B7C5F189CDAC9FEF4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A45AAEF-D3D1-4B01-A8E9-605E527AADD3}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,7 +69,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -136,16 +142,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -162,14 +168,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -207,7 +216,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -279,7 +288,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -452,35 +461,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="A1:XFD1048576"/>
+      <selection activeCell="D8" sqref="D8:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" customWidth="1"/>
+    <col min="6" max="6" width="11.26953125" customWidth="1"/>
+    <col min="7" max="7" width="14.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -497,7 +506,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -506,102 +515,116 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3">
+      <c r="C4" s="5"/>
+      <c r="D4" s="2">
         <v>1000</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2">
         <v>300</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2">
         <v>500</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2">
         <v>2000</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3">
-        <v>300</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2">
+        <v>400</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:G3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:G9"/>
@@ -611,20 +634,6 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:G3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="258" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -632,25 +641,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{9d258917-277f-42cd-a3cd-14c4e9ee58bc}" enabled="1" method="Standard" siteId="{38ae3bcd-9579-4fd4-adda-b42e1495d55a}" removed="0"/>
+</clbl:labelList>
 </file>